--- a/biology/Botanique/Sparaxis_tricolor/Sparaxis_tricolor.xlsx
+++ b/biology/Botanique/Sparaxis_tricolor/Sparaxis_tricolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sparaxis tricolor est une espèce de plantes vivaces à bulbe, de la famille des Iridaceae, originaire d'Afrique du Sud[3]. Elle se plaît dans des terres bien drainées et ensoleillées. Ses fleurs sont bicolores ou tricolores avec un cœur jaune bordé de brun et des pétales de couleur vive, appréciée aussi comme plante cultivée et présente dans les catalogues de pépiniéristes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sparaxis tricolor est une espèce de plantes vivaces à bulbe, de la famille des Iridaceae, originaire d'Afrique du Sud. Elle se plaît dans des terres bien drainées et ensoleillées. Ses fleurs sont bicolores ou tricolores avec un cœur jaune bordé de brun et des pétales de couleur vive, appréciée aussi comme plante cultivée et présente dans les catalogues de pépiniéristes.
 </t>
         </is>
       </c>
@@ -511,11 +523,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1794 sous le basionyme de Ixia tricolor par George Voorhelm Schneevoogt (es), puis recombinée dans le genre Sparaxis en 1804 par le botaniste britannique John Bellenden Ker Gawler (1764-1842). 
-Liste des variétés
-Selon Tropicos                                           (3 mars 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1794 sous le basionyme de Ixia tricolor par George Voorhelm Schneevoogt (es), puis recombinée dans le genre Sparaxis en 1804 par le botaniste britannique John Bellenden Ker Gawler (1764-1842). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sparaxis_tricolor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sparaxis_tricolor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (3 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 variété Sparaxis tricolor var. blanda (Sweet) Baker
 variété Sparaxis tricolor var. griffinii (Sweet) Baker
 variété Sparaxis tricolor var. versicolor (Sweet) Baker</t>
